--- a/2-simulation-and-optimization/optimization/solver-regression-solution.xlsx
+++ b/2-simulation-and-optimization/optimization/solver-regression-solution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-advanced-statistics-for-business-analytics\2-simulation-and-optimization\optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695C9227-F023-4EFE-83E9-80216CDEED30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EAD61E-D4A8-4A6A-9962-6F1269155BE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,13 @@
     <definedName name="solver_adj" localSheetId="1" hidden="1">iris!$C$1:$D$1</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.025</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">iris!$C$1</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
@@ -34,6 +35,8 @@
     <definedName name="solver_opt" localSheetId="1" hidden="1">iris!$F$1</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
@@ -1718,304 +1721,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="392"/>
                 <c:pt idx="0">
-                  <c:v>0.86899999999999988</c:v>
+                  <c:v>1.0315758405945901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9958999999999999</c:v>
+                  <c:v>1.134733424654049</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9958999999999999</c:v>
+                  <c:v>1.134733424654049</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0804999999999998</c:v>
+                  <c:v>1.2035051473603551</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0804999999999998</c:v>
+                  <c:v>1.2035051473603551</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1227999999999998</c:v>
+                  <c:v>1.2378910087135082</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1650999999999998</c:v>
+                  <c:v>1.2722768700666611</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2073999999999998</c:v>
+                  <c:v>1.306662731419814</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2496999999999998</c:v>
+                  <c:v>1.341048592772967</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2496999999999998</c:v>
+                  <c:v>1.341048592772967</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2496999999999998</c:v>
+                  <c:v>1.341048592772967</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2919999999999998</c:v>
+                  <c:v>1.3754344541261201</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2919999999999998</c:v>
+                  <c:v>1.3754344541261201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2919999999999998</c:v>
+                  <c:v>1.3754344541261201</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2919999999999998</c:v>
+                  <c:v>1.3754344541261201</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.2919999999999998</c:v>
+                  <c:v>1.3754344541261201</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3342999999999998</c:v>
+                  <c:v>1.409820315479273</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.3342999999999998</c:v>
+                  <c:v>1.409820315479273</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3342999999999998</c:v>
+                  <c:v>1.409820315479273</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.3765999999999998</c:v>
+                  <c:v>1.4442061768324261</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.3765999999999998</c:v>
+                  <c:v>1.4442061768324261</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.3765999999999998</c:v>
+                  <c:v>1.4442061768324261</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3765999999999998</c:v>
+                  <c:v>1.4442061768324261</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.4188999999999998</c:v>
+                  <c:v>1.478592038185579</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.4188999999999998</c:v>
+                  <c:v>1.478592038185579</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.4612000000000003</c:v>
+                  <c:v>1.5129778995387322</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.4612000000000003</c:v>
+                  <c:v>1.5129778995387322</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.4612000000000003</c:v>
+                  <c:v>1.5129778995387322</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.4612000000000003</c:v>
+                  <c:v>1.5129778995387322</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.5034999999999998</c:v>
+                  <c:v>1.5473637608918851</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.5034999999999998</c:v>
+                  <c:v>1.5473637608918851</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.5034999999999998</c:v>
+                  <c:v>1.5473637608918851</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.5034999999999998</c:v>
+                  <c:v>1.5473637608918851</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.5034999999999998</c:v>
+                  <c:v>1.5473637608918851</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.5034999999999998</c:v>
+                  <c:v>1.5473637608918851</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.5034999999999998</c:v>
+                  <c:v>1.5473637608918851</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.5034999999999998</c:v>
+                  <c:v>1.5473637608918851</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.5457999999999998</c:v>
+                  <c:v>1.581749622245038</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.5457999999999998</c:v>
+                  <c:v>1.581749622245038</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.5457999999999998</c:v>
+                  <c:v>1.581749622245038</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.5880999999999998</c:v>
+                  <c:v>1.6161354835981911</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.5880999999999998</c:v>
+                  <c:v>1.6161354835981911</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.5880999999999998</c:v>
+                  <c:v>1.6161354835981911</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.5880999999999998</c:v>
+                  <c:v>1.6161354835981911</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.5880999999999998</c:v>
+                  <c:v>1.6161354835981911</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.6303999999999998</c:v>
+                  <c:v>1.6505213449513441</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.6303999999999998</c:v>
+                  <c:v>1.6505213449513441</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.6303999999999998</c:v>
+                  <c:v>1.6505213449513441</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.6303999999999998</c:v>
+                  <c:v>1.6505213449513441</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.6727000000000003</c:v>
+                  <c:v>1.6849072063044972</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.6727000000000003</c:v>
+                  <c:v>1.6849072063044972</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.6727000000000003</c:v>
+                  <c:v>1.6849072063044972</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.6727000000000003</c:v>
+                  <c:v>1.6849072063044972</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.6727000000000003</c:v>
+                  <c:v>1.6849072063044972</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.7149999999999999</c:v>
+                  <c:v>1.7192930676576501</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.7149999999999999</c:v>
+                  <c:v>1.7192930676576501</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.7149999999999999</c:v>
+                  <c:v>1.7192930676576501</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.7149999999999999</c:v>
+                  <c:v>1.7192930676576501</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.7572999999999999</c:v>
+                  <c:v>1.753678929010803</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.7572999999999999</c:v>
+                  <c:v>1.753678929010803</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.7572999999999999</c:v>
+                  <c:v>1.753678929010803</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.7572999999999999</c:v>
+                  <c:v>1.753678929010803</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.7572999999999999</c:v>
+                  <c:v>1.753678929010803</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.7572999999999999</c:v>
+                  <c:v>1.753678929010803</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.7572999999999999</c:v>
+                  <c:v>1.753678929010803</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.7572999999999999</c:v>
+                  <c:v>1.753678929010803</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.7996000000000003</c:v>
+                  <c:v>1.7880647903639562</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.7996000000000003</c:v>
+                  <c:v>1.7880647903639562</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.8418999999999999</c:v>
+                  <c:v>1.8224506517171091</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.8418999999999999</c:v>
+                  <c:v>1.8224506517171091</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.8842000000000003</c:v>
+                  <c:v>1.8568365130702622</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.8842000000000003</c:v>
+                  <c:v>1.8568365130702622</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.9264999999999999</c:v>
+                  <c:v>1.8912223744234151</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.9264999999999999</c:v>
+                  <c:v>1.8912223744234151</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.9264999999999999</c:v>
+                  <c:v>1.8912223744234151</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.9687999999999999</c:v>
+                  <c:v>1.925608235776568</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.9687999999999999</c:v>
+                  <c:v>1.925608235776568</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.9687999999999999</c:v>
+                  <c:v>1.925608235776568</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.9687999999999999</c:v>
+                  <c:v>1.925608235776568</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.9687999999999999</c:v>
+                  <c:v>1.925608235776568</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.9687999999999999</c:v>
+                  <c:v>1.925608235776568</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.0110999999999999</c:v>
+                  <c:v>1.9599940971297212</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.0110999999999999</c:v>
+                  <c:v>1.9599940971297212</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.0110999999999999</c:v>
+                  <c:v>1.9599940971297212</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.0533999999999999</c:v>
+                  <c:v>1.9943799584828741</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.0533999999999999</c:v>
+                  <c:v>1.9943799584828741</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.0533999999999999</c:v>
+                  <c:v>1.9943799584828741</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.0957000000000003</c:v>
+                  <c:v>2.0287658198360274</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.0957000000000003</c:v>
+                  <c:v>2.0287658198360274</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.1379999999999999</c:v>
+                  <c:v>2.0631516811891801</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.1379999999999999</c:v>
+                  <c:v>2.0631516811891801</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.1802999999999999</c:v>
+                  <c:v>2.0975375425423328</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.1802999999999999</c:v>
+                  <c:v>2.0975375425423328</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.1802999999999999</c:v>
+                  <c:v>2.0975375425423328</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.2648999999999999</c:v>
+                  <c:v>2.1663092652486391</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.3072000000000004</c:v>
+                  <c:v>2.2006951266017922</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.3917999999999999</c:v>
+                  <c:v>2.2694668493080981</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.4340999999999999</c:v>
+                  <c:v>2.3038527106612512</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.4340999999999999</c:v>
+                  <c:v>2.3038527106612512</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.5186999999999999</c:v>
+                  <c:v>2.3726244333675575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3210,7 +3213,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3221,14 +3224,14 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="D1">
-        <v>0.42299999999999999</v>
+        <v>0.34385861353153002</v>
       </c>
       <c r="F1">
         <f>SUM(F3:F152)</f>
-        <v>5.7535404400000001</v>
+        <v>6.1947754975023832</v>
       </c>
       <c r="H1">
         <v>6.19</v>
@@ -3263,19 +3266,19 @@
       </c>
       <c r="C3">
         <f>$C$1</f>
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <f>$D$1</f>
-        <v>0.42299999999999999</v>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E3">
-        <f>C3+(A3*D3)</f>
-        <v>0.86899999999999988</v>
+        <f t="shared" ref="E3:E34" si="0">C3+(A3*D3)</f>
+        <v>1.0315758405945901</v>
       </c>
       <c r="F3">
-        <f>(B3-E3)^2</f>
-        <v>5.3361000000000096E-2</v>
+        <f t="shared" ref="F3:F34" si="1">(B3-E3)^2</f>
+        <v>4.6818655903369611E-3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -3286,20 +3289,20 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C67" si="0">$C$1</f>
-        <v>-0.4</v>
+        <f t="shared" ref="C4:C67" si="2">$C$1</f>
+        <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D67" si="1">$D$1</f>
-        <v>0.42299999999999999</v>
+        <f t="shared" ref="D4:D67" si="3">$D$1</f>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E4">
-        <f>C4+(A4*D4)</f>
-        <v>0.9958999999999999</v>
+        <f t="shared" si="0"/>
+        <v>1.134733424654049</v>
       </c>
       <c r="F4">
-        <f>(B4-E4)^2</f>
-        <v>1.681000000000085E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.8153095719008305E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -3310,20 +3313,20 @@
         <v>1</v>
       </c>
       <c r="C5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
-      </c>
-      <c r="D5">
+        <v>1.134733424654049</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="E5">
-        <f>C5+(A5*D5)</f>
-        <v>0.9958999999999999</v>
-      </c>
-      <c r="F5">
-        <f>(B5-E5)^2</f>
-        <v>1.681000000000085E-5</v>
+        <v>1.8153095719008305E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -3334,20 +3337,20 @@
         <v>1</v>
       </c>
       <c r="C6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
-      </c>
-      <c r="D6">
+        <v>1.2035051473603551</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="E6">
-        <f>C6+(A6*D6)</f>
-        <v>1.0804999999999998</v>
-      </c>
-      <c r="F6">
-        <f>(B6-E6)^2</f>
-        <v>6.4802499999999669E-3</v>
+        <v>4.1414345002159833E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -3358,20 +3361,20 @@
         <v>1</v>
       </c>
       <c r="C7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
-      </c>
-      <c r="D7">
+        <v>1.2035051473603551</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="E7">
-        <f>C7+(A7*D7)</f>
-        <v>1.0804999999999998</v>
-      </c>
-      <c r="F7">
-        <f>(B7-E7)^2</f>
-        <v>6.4802499999999669E-3</v>
+        <v>4.1414345002159833E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -3382,20 +3385,20 @@
         <v>1.3</v>
       </c>
       <c r="C8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
-      </c>
-      <c r="D8">
+        <v>1.2378910087135082</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="E8">
-        <f>C8+(A8*D8)</f>
-        <v>1.1227999999999998</v>
-      </c>
-      <c r="F8">
-        <f>(B8-E8)^2</f>
-        <v>3.1399840000000089E-2</v>
+        <v>3.8575267986255186E-3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -3406,20 +3409,20 @@
         <v>1</v>
       </c>
       <c r="C9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
-      </c>
-      <c r="D9">
+        <v>1.2722768700666611</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="E9">
-        <f>C9+(A9*D9)</f>
-        <v>1.1650999999999998</v>
-      </c>
-      <c r="F9">
-        <f>(B9-E9)^2</f>
-        <v>2.7258009999999933E-2</v>
+        <v>7.4134693973297472E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -3430,20 +3433,20 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
-      </c>
-      <c r="D10">
+        <v>1.306662731419814</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="E10">
-        <f>C10+(A10*D10)</f>
-        <v>1.2073999999999998</v>
-      </c>
-      <c r="F10">
-        <f>(B10-E10)^2</f>
-        <v>1.1534759999999939E-2</v>
+        <v>4.2709484557898157E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -3454,20 +3457,20 @@
         <v>1.4</v>
       </c>
       <c r="C11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
-      </c>
-      <c r="D11">
+        <v>1.341048592772967</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="E11">
-        <f>C11+(A11*D11)</f>
-        <v>1.2496999999999998</v>
-      </c>
-      <c r="F11">
-        <f>(B11-E11)^2</f>
-        <v>2.2590090000000031E-2</v>
+        <v>3.4752684140474739E-3</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -3478,20 +3481,20 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
-      </c>
-      <c r="D12">
+        <v>1.341048592772967</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="E12">
-        <f>C12+(A12*D12)</f>
-        <v>1.2496999999999998</v>
-      </c>
-      <c r="F12">
-        <f>(B12-E12)^2</f>
-        <v>2.2410089999999917E-2</v>
+        <v>5.8104424077827614E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -3502,20 +3505,20 @@
         <v>1.2</v>
       </c>
       <c r="C13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
-      </c>
-      <c r="D13">
+        <v>1.341048592772967</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="E13">
-        <f>C13+(A13*D13)</f>
-        <v>1.2496999999999998</v>
-      </c>
-      <c r="F13">
-        <f>(B13-E13)^2</f>
-        <v>2.4700899999999856E-3</v>
+        <v>1.9894705523234277E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -3526,20 +3529,20 @@
         <v>1.3</v>
       </c>
       <c r="C14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
-      </c>
-      <c r="D14">
+        <v>1.3754344541261201</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="E14">
-        <f>C14+(A14*D14)</f>
-        <v>1.2919999999999998</v>
-      </c>
-      <c r="F14">
-        <f>(B14-E14)^2</f>
-        <v>6.400000000000367E-5</v>
+        <v>5.6903568693057096E-3</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -3550,20 +3553,20 @@
         <v>1</v>
       </c>
       <c r="C15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
-      </c>
-      <c r="D15">
+        <v>1.3754344541261201</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="E15">
-        <f>C15+(A15*D15)</f>
-        <v>1.2919999999999998</v>
-      </c>
-      <c r="F15">
-        <f>(B15-E15)^2</f>
-        <v>8.5263999999999895E-2</v>
+        <v>0.14095102934497777</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -3574,20 +3577,20 @@
         <v>1.3</v>
       </c>
       <c r="C16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
-      </c>
-      <c r="D16">
+        <v>1.3754344541261201</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="E16">
-        <f>C16+(A16*D16)</f>
-        <v>1.2919999999999998</v>
-      </c>
-      <c r="F16">
-        <f>(B16-E16)^2</f>
-        <v>6.400000000000367E-5</v>
+        <v>5.6903568693057096E-3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -3598,20 +3601,20 @@
         <v>1.3</v>
       </c>
       <c r="C17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
-      </c>
-      <c r="D17">
+        <v>1.3754344541261201</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="E17">
-        <f>C17+(A17*D17)</f>
-        <v>1.2919999999999998</v>
-      </c>
-      <c r="F17">
-        <f>(B17-E17)^2</f>
-        <v>6.400000000000367E-5</v>
+        <v>5.6903568693057096E-3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -3622,20 +3625,20 @@
         <v>1.2</v>
       </c>
       <c r="C18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
-      </c>
-      <c r="D18">
+        <v>1.3754344541261201</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="E18">
-        <f>C18+(A18*D18)</f>
-        <v>1.2919999999999998</v>
-      </c>
-      <c r="F18">
-        <f>(B18-E18)^2</f>
-        <v>8.463999999999975E-3</v>
+        <v>3.077724769452975E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -3646,20 +3649,20 @@
         <v>1</v>
       </c>
       <c r="C19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
-      </c>
-      <c r="D19">
+        <v>1.409820315479273</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="E19">
-        <f>C19+(A19*D19)</f>
-        <v>1.3342999999999998</v>
-      </c>
-      <c r="F19">
-        <f>(B19-E19)^2</f>
-        <v>0.11175648999999988</v>
+        <v>0.16795269097953086</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -3670,20 +3673,20 @@
         <v>1.3</v>
       </c>
       <c r="C20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
-      </c>
-      <c r="D20">
+        <v>1.409820315479273</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="E20">
-        <f>C20+(A20*D20)</f>
-        <v>1.3342999999999998</v>
-      </c>
-      <c r="F20">
-        <f>(B20-E20)^2</f>
-        <v>1.1764899999999845E-3</v>
+        <v>1.2060501691967039E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -3694,20 +3697,20 @@
         <v>1.3</v>
       </c>
       <c r="C21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
+      </c>
+      <c r="E21">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
-      </c>
-      <c r="D21">
+        <v>1.409820315479273</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="E21">
-        <f>C21+(A21*D21)</f>
-        <v>1.3342999999999998</v>
-      </c>
-      <c r="F21">
-        <f>(B21-E21)^2</f>
-        <v>1.1764899999999845E-3</v>
+        <v>1.2060501691967039E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -3718,20 +3721,20 @@
         <v>1.5</v>
       </c>
       <c r="C22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
+      </c>
+      <c r="E22">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
-      </c>
-      <c r="D22">
+        <v>1.4442061768324261</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="E22">
-        <f>C22+(A22*D22)</f>
-        <v>1.3765999999999998</v>
-      </c>
-      <c r="F22">
-        <f>(B22-E22)^2</f>
-        <v>1.5227560000000043E-2</v>
+        <v>3.112950703654502E-3</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -3742,20 +3745,20 @@
         <v>1.3</v>
       </c>
       <c r="C23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
-      </c>
-      <c r="D23">
+        <v>1.4442061768324261</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="E23">
-        <f>C23+(A23*D23)</f>
-        <v>1.3765999999999998</v>
-      </c>
-      <c r="F23">
-        <f>(B23-E23)^2</f>
-        <v>5.8675599999999661E-3</v>
+        <v>2.0795421436624942E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -3766,20 +3769,20 @@
         <v>1.2</v>
       </c>
       <c r="C24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
-      </c>
-      <c r="D24">
+        <v>1.4442061768324261</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="E24">
-        <f>C24+(A24*D24)</f>
-        <v>1.3765999999999998</v>
-      </c>
-      <c r="F24">
-        <f>(B24-E24)^2</f>
-        <v>3.1187559999999954E-2</v>
+        <v>5.9636656803110207E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -3790,20 +3793,20 @@
         <v>1.3</v>
       </c>
       <c r="C25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
-      </c>
-      <c r="D25">
+        <v>1.4442061768324261</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="E25">
-        <f>C25+(A25*D25)</f>
-        <v>1.3765999999999998</v>
-      </c>
-      <c r="F25">
-        <f>(B25-E25)^2</f>
-        <v>5.8675599999999661E-3</v>
+        <v>2.0795421436624942E-2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -3814,20 +3817,20 @@
         <v>1.3</v>
       </c>
       <c r="C26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
+      </c>
+      <c r="E26">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
-      </c>
-      <c r="D26">
+        <v>1.478592038185579</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="E26">
-        <f>C26+(A26*D26)</f>
-        <v>1.4188999999999998</v>
-      </c>
-      <c r="F26">
-        <f>(B26-E26)^2</f>
-        <v>1.4137209999999949E-2</v>
+        <v>3.189511610327931E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -3838,20 +3841,20 @@
         <v>1.3</v>
       </c>
       <c r="C27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
+      </c>
+      <c r="E27">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
-      </c>
-      <c r="D27">
+        <v>1.478592038185579</v>
+      </c>
+      <c r="F27">
         <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="E27">
-        <f>C27+(A27*D27)</f>
-        <v>1.4188999999999998</v>
-      </c>
-      <c r="F27">
-        <f>(B27-E27)^2</f>
-        <v>1.4137209999999949E-2</v>
+        <v>3.189511610327931E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -3862,20 +3865,20 @@
         <v>1.4</v>
       </c>
       <c r="C28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
+      </c>
+      <c r="E28">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
-      </c>
-      <c r="D28">
+        <v>1.5129778995387322</v>
+      </c>
+      <c r="F28">
         <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="E28">
-        <f>C28+(A28*D28)</f>
-        <v>1.4612000000000003</v>
-      </c>
-      <c r="F28">
-        <f>(B28-E28)^2</f>
-        <v>3.7454400000000447E-3</v>
+        <v>1.2764005784183883E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -3886,20 +3889,20 @@
         <v>1.4</v>
       </c>
       <c r="C29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
-      </c>
-      <c r="D29">
+        <v>1.5129778995387322</v>
+      </c>
+      <c r="F29">
         <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="E29">
-        <f>C29+(A29*D29)</f>
-        <v>1.4612000000000003</v>
-      </c>
-      <c r="F29">
-        <f>(B29-E29)^2</f>
-        <v>3.7454400000000447E-3</v>
+        <v>1.2764005784183883E-2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -3910,20 +3913,20 @@
         <v>1.3</v>
       </c>
       <c r="C30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
+      </c>
+      <c r="E30">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
-      </c>
-      <c r="D30">
+        <v>1.5129778995387322</v>
+      </c>
+      <c r="F30">
         <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="E30">
-        <f>C30+(A30*D30)</f>
-        <v>1.4612000000000003</v>
-      </c>
-      <c r="F30">
-        <f>(B30-E30)^2</f>
-        <v>2.5985440000000075E-2</v>
+        <v>4.5359585691930278E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -3934,20 +3937,20 @@
         <v>1.2</v>
       </c>
       <c r="C31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
+      </c>
+      <c r="E31">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
-      </c>
-      <c r="D31">
+        <v>1.5129778995387322</v>
+      </c>
+      <c r="F31">
         <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="E31">
-        <f>C31+(A31*D31)</f>
-        <v>1.4612000000000003</v>
-      </c>
-      <c r="F31">
-        <f>(B31-E31)^2</f>
-        <v>6.8225440000000165E-2</v>
+        <v>9.7955165599676763E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -3958,20 +3961,20 @@
         <v>1.5</v>
       </c>
       <c r="C32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
+      </c>
+      <c r="E32">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
-      </c>
-      <c r="D32">
+        <v>1.5473637608918851</v>
+      </c>
+      <c r="F32">
         <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="E32">
-        <f>C32+(A32*D32)</f>
-        <v>1.5034999999999998</v>
-      </c>
-      <c r="F32">
-        <f>(B32-E32)^2</f>
-        <v>1.2249999999998856E-5</v>
+        <v>2.2433258458236642E-3</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -3982,20 +3985,20 @@
         <v>1.3</v>
       </c>
       <c r="C33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
+      </c>
+      <c r="E33">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
-      </c>
-      <c r="D33">
+        <v>1.5473637608918851</v>
+      </c>
+      <c r="F33">
         <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="E33">
-        <f>C33+(A33*D33)</f>
-        <v>1.5034999999999998</v>
-      </c>
-      <c r="F33">
-        <f>(B33-E33)^2</f>
-        <v>4.1412249999999914E-2</v>
+        <v>6.1188830202577683E-2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -4006,20 +4009,20 @@
         <v>1.5</v>
       </c>
       <c r="C34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
+      </c>
+      <c r="E34">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
-      </c>
-      <c r="D34">
+        <v>1.5473637608918851</v>
+      </c>
+      <c r="F34">
         <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="E34">
-        <f>C34+(A34*D34)</f>
-        <v>1.5034999999999998</v>
-      </c>
-      <c r="F34">
-        <f>(B34-E34)^2</f>
-        <v>1.2249999999998856E-5</v>
+        <v>2.2433258458236642E-3</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -4030,20 +4033,20 @@
         <v>1.5</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E35">
-        <f>C35+(A35*D35)</f>
-        <v>1.5034999999999998</v>
+        <f t="shared" ref="E35:E66" si="4">C35+(A35*D35)</f>
+        <v>1.5473637608918851</v>
       </c>
       <c r="F35">
-        <f>(B35-E35)^2</f>
-        <v>1.2249999999998856E-5</v>
+        <f t="shared" ref="F35:F66" si="5">(B35-E35)^2</f>
+        <v>2.2433258458236642E-3</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -4054,20 +4057,20 @@
         <v>1.5</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D36">
-        <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E36">
-        <f>C36+(A36*D36)</f>
-        <v>1.5034999999999998</v>
+        <f t="shared" si="4"/>
+        <v>1.5473637608918851</v>
       </c>
       <c r="F36">
-        <f>(B36-E36)^2</f>
-        <v>1.2249999999998856E-5</v>
+        <f t="shared" si="5"/>
+        <v>2.2433258458236642E-3</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -4078,20 +4081,20 @@
         <v>1.5</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E37">
-        <f>C37+(A37*D37)</f>
-        <v>1.5034999999999998</v>
+        <f t="shared" si="4"/>
+        <v>1.5473637608918851</v>
       </c>
       <c r="F37">
-        <f>(B37-E37)^2</f>
-        <v>1.2249999999998856E-5</v>
+        <f t="shared" si="5"/>
+        <v>2.2433258458236642E-3</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -4102,20 +4105,20 @@
         <v>1.6</v>
       </c>
       <c r="C38">
-        <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E38">
-        <f>C38+(A38*D38)</f>
-        <v>1.5034999999999998</v>
+        <f t="shared" si="4"/>
+        <v>1.5473637608918851</v>
       </c>
       <c r="F38">
-        <f>(B38-E38)^2</f>
-        <v>9.3122500000000479E-3</v>
+        <f t="shared" si="5"/>
+        <v>2.7705736674466541E-3</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -4126,20 +4129,20 @@
         <v>1.7</v>
       </c>
       <c r="C39">
-        <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D39">
-        <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E39">
-        <f>C39+(A39*D39)</f>
-        <v>1.5034999999999998</v>
+        <f t="shared" si="4"/>
+        <v>1.5473637608918851</v>
       </c>
       <c r="F39">
-        <f>(B39-E39)^2</f>
-        <v>3.8612250000000049E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.3297821489069611E-2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -4150,20 +4153,20 @@
         <v>1.5</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E40">
-        <f>C40+(A40*D40)</f>
-        <v>1.5457999999999998</v>
+        <f t="shared" si="4"/>
+        <v>1.581749622245038</v>
       </c>
       <c r="F40">
-        <f>(B40-E40)^2</f>
-        <v>2.0976399999999853E-3</v>
+        <f t="shared" si="5"/>
+        <v>6.6830007372064137E-3</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -4174,20 +4177,20 @@
         <v>1.3</v>
       </c>
       <c r="C41">
-        <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D41">
-        <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E41">
-        <f>C41+(A41*D41)</f>
-        <v>1.5457999999999998</v>
+        <f t="shared" si="4"/>
+        <v>1.581749622245038</v>
       </c>
       <c r="F41">
-        <f>(B41-E41)^2</f>
-        <v>6.0417639999999898E-2</v>
+        <f t="shared" si="5"/>
+        <v>7.9382849635221589E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -4198,20 +4201,20 @@
         <v>1.4</v>
       </c>
       <c r="C42">
-        <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D42">
-        <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E42">
-        <f>C42+(A42*D42)</f>
-        <v>1.5457999999999998</v>
+        <f t="shared" si="4"/>
+        <v>1.581749622245038</v>
       </c>
       <c r="F42">
-        <f>(B42-E42)^2</f>
-        <v>2.125763999999998E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.3032925186214049E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -4222,20 +4225,20 @@
         <v>1.4</v>
       </c>
       <c r="C43">
-        <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D43">
-        <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E43">
-        <f>C43+(A43*D43)</f>
-        <v>1.5880999999999998</v>
+        <f t="shared" si="4"/>
+        <v>1.6161354835981911</v>
       </c>
       <c r="F43">
-        <f>(B43-E43)^2</f>
-        <v>3.5381609999999973E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.6714547270223991E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -4246,20 +4249,20 @@
         <v>1.6</v>
       </c>
       <c r="C44">
-        <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D44">
-        <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E44">
-        <f>C44+(A44*D44)</f>
-        <v>1.5880999999999998</v>
+        <f t="shared" si="4"/>
+        <v>1.6161354835981911</v>
       </c>
       <c r="F44">
-        <f>(B44-E44)^2</f>
-        <v>1.4161000000000579E-4</v>
+        <f t="shared" si="5"/>
+        <v>2.6035383094749268E-4</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -4270,20 +4273,20 @@
         <v>1.4</v>
       </c>
       <c r="C45">
-        <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D45">
-        <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E45">
-        <f>C45+(A45*D45)</f>
-        <v>1.5880999999999998</v>
+        <f t="shared" si="4"/>
+        <v>1.6161354835981911</v>
       </c>
       <c r="F45">
-        <f>(B45-E45)^2</f>
-        <v>3.5381609999999973E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.6714547270223991E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -4294,20 +4297,20 @@
         <v>1.2</v>
       </c>
       <c r="C46">
-        <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D46">
-        <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E46">
-        <f>C46+(A46*D46)</f>
-        <v>1.5880999999999998</v>
+        <f t="shared" si="4"/>
+        <v>1.6161354835981911</v>
       </c>
       <c r="F46">
-        <f>(B46-E46)^2</f>
-        <v>0.15062160999999991</v>
+        <f t="shared" si="5"/>
+        <v>0.17316874070950045</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -4318,20 +4321,20 @@
         <v>1.5</v>
       </c>
       <c r="C47">
-        <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D47">
-        <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E47">
-        <f>C47+(A47*D47)</f>
-        <v>1.5880999999999998</v>
+        <f t="shared" si="4"/>
+        <v>1.6161354835981911</v>
       </c>
       <c r="F47">
-        <f>(B47-E47)^2</f>
-        <v>7.7616099999999726E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.3487450550585724E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -4342,20 +4345,20 @@
         <v>1.8</v>
       </c>
       <c r="C48">
-        <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D48">
-        <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E48">
-        <f>C48+(A48*D48)</f>
-        <v>1.6303999999999998</v>
+        <f t="shared" si="4"/>
+        <v>1.6505213449513441</v>
       </c>
       <c r="F48">
-        <f>(B48-E48)^2</f>
-        <v>2.8764160000000066E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.2343868315155085E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -4366,20 +4369,20 @@
         <v>1.4</v>
       </c>
       <c r="C49">
-        <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D49">
-        <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E49">
-        <f>C49+(A49*D49)</f>
-        <v>1.6303999999999998</v>
+        <f t="shared" si="4"/>
+        <v>1.6505213449513441</v>
       </c>
       <c r="F49">
-        <f>(B49-E49)^2</f>
-        <v>5.3084159999999971E-2</v>
+        <f t="shared" si="5"/>
+        <v>6.2760944276230371E-2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -4390,20 +4393,20 @@
         <v>1.8</v>
       </c>
       <c r="C50">
-        <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D50">
-        <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E50">
-        <f>C50+(A50*D50)</f>
-        <v>1.6303999999999998</v>
+        <f t="shared" si="4"/>
+        <v>1.6505213449513441</v>
       </c>
       <c r="F50">
-        <f>(B50-E50)^2</f>
-        <v>2.8764160000000066E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.2343868315155085E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -4414,20 +4417,20 @@
         <v>1.8</v>
       </c>
       <c r="C51">
-        <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D51">
-        <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E51">
-        <f>C51+(A51*D51)</f>
-        <v>1.6303999999999998</v>
+        <f t="shared" si="4"/>
+        <v>1.6505213449513441</v>
       </c>
       <c r="F51">
-        <f>(B51-E51)^2</f>
-        <v>2.8764160000000066E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.2343868315155085E-2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -4438,20 +4441,20 @@
         <v>1.5</v>
       </c>
       <c r="C52">
-        <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D52">
-        <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E52">
-        <f>C52+(A52*D52)</f>
-        <v>1.6727000000000003</v>
+        <f t="shared" si="4"/>
+        <v>1.6849072063044972</v>
       </c>
       <c r="F52">
-        <f>(B52-E52)^2</f>
-        <v>2.9825290000000101E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.4190674943333887E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -4462,20 +4465,20 @@
         <v>1.5</v>
       </c>
       <c r="C53">
-        <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D53">
-        <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E53">
-        <f>C53+(A53*D53)</f>
-        <v>1.6727000000000003</v>
+        <f t="shared" si="4"/>
+        <v>1.6849072063044972</v>
       </c>
       <c r="F53">
-        <f>(B53-E53)^2</f>
-        <v>2.9825290000000101E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.4190674943333887E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -4486,20 +4489,20 @@
         <v>2</v>
       </c>
       <c r="C54">
-        <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D54">
-        <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E54">
-        <f>C54+(A54*D54)</f>
-        <v>1.6727000000000003</v>
+        <f t="shared" si="4"/>
+        <v>1.6849072063044972</v>
       </c>
       <c r="F54">
-        <f>(B54-E54)^2</f>
-        <v>0.1071252899999998</v>
+        <f t="shared" si="5"/>
+        <v>9.9283468638836692E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -4510,20 +4513,20 @@
         <v>1.8</v>
       </c>
       <c r="C55">
-        <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D55">
-        <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E55">
-        <f>C55+(A55*D55)</f>
-        <v>1.6727000000000003</v>
+        <f t="shared" si="4"/>
+        <v>1.6849072063044972</v>
       </c>
       <c r="F55">
-        <f>(B55-E55)^2</f>
-        <v>1.6205289999999935E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.3246351160635579E-2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -4534,20 +4537,20 @@
         <v>1.8</v>
       </c>
       <c r="C56">
-        <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D56">
-        <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E56">
-        <f>C56+(A56*D56)</f>
-        <v>1.6727000000000003</v>
+        <f t="shared" si="4"/>
+        <v>1.6849072063044972</v>
       </c>
       <c r="F56">
-        <f>(B56-E56)^2</f>
-        <v>1.6205289999999935E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.3246351160635579E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -4558,20 +4561,20 @@
         <v>1.7</v>
       </c>
       <c r="C57">
-        <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D57">
-        <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E57">
-        <f>C57+(A57*D57)</f>
-        <v>1.7149999999999999</v>
+        <f t="shared" si="4"/>
+        <v>1.7192930676576501</v>
       </c>
       <c r="F57">
-        <f>(B57-E57)^2</f>
-        <v>2.2499999999999707E-4</v>
+        <f t="shared" si="5"/>
+        <v>3.7222245964266639E-4</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -4582,20 +4585,20 @@
         <v>2</v>
       </c>
       <c r="C58">
-        <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D58">
-        <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E58">
-        <f>C58+(A58*D58)</f>
-        <v>1.7149999999999999</v>
+        <f t="shared" si="4"/>
+        <v>1.7192930676576501</v>
       </c>
       <c r="F58">
-        <f>(B58-E58)^2</f>
-        <v>8.1225000000000075E-2</v>
+        <f t="shared" si="5"/>
+        <v>7.8796381865052598E-2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -4606,20 +4609,20 @@
         <v>1.5</v>
       </c>
       <c r="C59">
-        <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D59">
-        <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E59">
-        <f>C59+(A59*D59)</f>
-        <v>1.7149999999999999</v>
+        <f t="shared" si="4"/>
+        <v>1.7192930676576501</v>
       </c>
       <c r="F59">
-        <f>(B59-E59)^2</f>
-        <v>4.622499999999994E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.8089449522702707E-2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -4630,20 +4633,20 @@
         <v>1.9</v>
       </c>
       <c r="C60">
-        <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D60">
-        <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E60">
-        <f>C60+(A60*D60)</f>
-        <v>1.7149999999999999</v>
+        <f t="shared" si="4"/>
+        <v>1.7192930676576501</v>
       </c>
       <c r="F60">
-        <f>(B60-E60)^2</f>
-        <v>3.4225000000000019E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.2654995396582592E-2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -4654,20 +4657,20 @@
         <v>1.6</v>
       </c>
       <c r="C61">
-        <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D61">
-        <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E61">
-        <f>C61+(A61*D61)</f>
-        <v>1.7572999999999999</v>
+        <f t="shared" si="4"/>
+        <v>1.753678929010803</v>
       </c>
       <c r="F61">
-        <f>(B61-E61)^2</f>
-        <v>2.4743289999999928E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.3617213221907407E-2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -4678,20 +4681,20 @@
         <v>1.9</v>
       </c>
       <c r="C62">
-        <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D62">
-        <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E62">
-        <f>C62+(A62*D62)</f>
-        <v>1.7572999999999999</v>
+        <f t="shared" si="4"/>
+        <v>1.753678929010803</v>
       </c>
       <c r="F62">
-        <f>(B62-E62)^2</f>
-        <v>2.0363290000000013E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.1409855815425597E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -4702,20 +4705,20 @@
         <v>2</v>
       </c>
       <c r="C63">
-        <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D63">
-        <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E63">
-        <f>C63+(A63*D63)</f>
-        <v>1.7572999999999999</v>
+        <f t="shared" si="4"/>
+        <v>1.753678929010803</v>
       </c>
       <c r="F63">
-        <f>(B63-E63)^2</f>
-        <v>5.8903290000000066E-2</v>
+        <f t="shared" si="5"/>
+        <v>6.0674070013265018E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -4726,20 +4729,20 @@
         <v>2.4</v>
       </c>
       <c r="C64">
-        <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D64">
-        <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E64">
-        <f>C64+(A64*D64)</f>
-        <v>1.7572999999999999</v>
+        <f t="shared" si="4"/>
+        <v>1.753678929010803</v>
       </c>
       <c r="F64">
-        <f>(B64-E64)^2</f>
-        <v>0.41306329000000008</v>
+        <f t="shared" si="5"/>
+        <v>0.41773092680462248</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -4750,20 +4753,20 @@
         <v>1.5</v>
       </c>
       <c r="C65">
-        <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D65">
-        <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E65">
-        <f>C65+(A65*D65)</f>
-        <v>1.7572999999999999</v>
+        <f t="shared" si="4"/>
+        <v>1.753678929010803</v>
       </c>
       <c r="F65">
-        <f>(B65-E65)^2</f>
-        <v>6.6203289999999929E-2</v>
+        <f t="shared" si="5"/>
+        <v>6.4352999024068033E-2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -4774,20 +4777,20 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C66">
-        <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D66">
-        <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E66">
-        <f>C66+(A66*D66)</f>
-        <v>1.7572999999999999</v>
+        <f t="shared" si="4"/>
+        <v>1.753678929010803</v>
       </c>
       <c r="F66">
-        <f>(B66-E66)^2</f>
-        <v>0.29452328999999994</v>
+        <f t="shared" si="5"/>
+        <v>0.29846671260678304</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -4798,20 +4801,20 @@
         <v>1.9</v>
       </c>
       <c r="C67">
-        <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D67">
-        <f t="shared" si="1"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E67">
-        <f>C67+(A67*D67)</f>
-        <v>1.7572999999999999</v>
+        <f t="shared" ref="E67:E98" si="6">C67+(A67*D67)</f>
+        <v>1.753678929010803</v>
       </c>
       <c r="F67">
-        <f>(B67-E67)^2</f>
-        <v>2.0363290000000013E-2</v>
+        <f t="shared" ref="F67:F98" si="7">(B67-E67)^2</f>
+        <v>2.1409855815425597E-2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -4822,20 +4825,20 @@
         <v>1.8</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:C131" si="2">$C$1</f>
-        <v>-0.4</v>
+        <f t="shared" ref="C68:C102" si="8">$C$1</f>
+        <v>0</v>
       </c>
       <c r="D68">
-        <f t="shared" ref="D68:D131" si="3">$D$1</f>
-        <v>0.42299999999999999</v>
+        <f t="shared" ref="D68:D102" si="9">$D$1</f>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E68">
-        <f>C68+(A68*D68)</f>
-        <v>1.7572999999999999</v>
+        <f t="shared" si="6"/>
+        <v>1.753678929010803</v>
       </c>
       <c r="F68">
-        <f>(B68-E68)^2</f>
-        <v>1.8232900000000156E-3</v>
+        <f t="shared" si="7"/>
+        <v>2.1456416175862298E-3</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -4846,20 +4849,20 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C69">
-        <f t="shared" si="2"/>
-        <v>-0.4</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D69">
-        <f t="shared" si="3"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E69">
-        <f>C69+(A69*D69)</f>
-        <v>1.7996000000000003</v>
+        <f t="shared" si="6"/>
+        <v>1.7880647903639562</v>
       </c>
       <c r="F69">
-        <f>(B69-E69)^2</f>
-        <v>0.25040015999999954</v>
+        <f t="shared" si="7"/>
+        <v>0.26207765886509998</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -4870,20 +4873,20 @@
         <v>2</v>
       </c>
       <c r="C70">
-        <f t="shared" si="2"/>
-        <v>-0.4</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D70">
-        <f t="shared" si="3"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E70">
-        <f>C70+(A70*D70)</f>
-        <v>1.7996000000000003</v>
+        <f t="shared" si="6"/>
+        <v>1.7880647903639562</v>
       </c>
       <c r="F70">
-        <f>(B70-E70)^2</f>
-        <v>4.0160159999999875E-2</v>
+        <f t="shared" si="7"/>
+        <v>4.4916533083473847E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -4894,20 +4897,20 @@
         <v>1.9</v>
       </c>
       <c r="C71">
-        <f t="shared" si="2"/>
-        <v>-0.4</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D71">
-        <f t="shared" si="3"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E71">
-        <f>C71+(A71*D71)</f>
-        <v>1.8418999999999999</v>
+        <f t="shared" si="6"/>
+        <v>1.8224506517171091</v>
       </c>
       <c r="F71">
-        <f>(B71-E71)^2</f>
-        <v>3.3756100000000046E-3</v>
+        <f t="shared" si="7"/>
+        <v>6.0139014191011048E-3</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -4918,20 +4921,20 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C72">
-        <f t="shared" si="2"/>
-        <v>-0.4</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D72">
-        <f t="shared" si="3"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E72">
-        <f>C72+(A72*D72)</f>
-        <v>1.8418999999999999</v>
+        <f t="shared" si="6"/>
+        <v>1.8224506517171091</v>
       </c>
       <c r="F72">
-        <f>(B72-E72)^2</f>
-        <v>0.20985560999999994</v>
+        <f t="shared" si="7"/>
+        <v>0.2280533800454137</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -4942,20 +4945,20 @@
         <v>2.1</v>
       </c>
       <c r="C73">
-        <f t="shared" si="2"/>
-        <v>-0.4</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D73">
-        <f t="shared" si="3"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E73">
-        <f>C73+(A73*D73)</f>
-        <v>1.8842000000000003</v>
+        <f t="shared" si="6"/>
+        <v>1.8568365130702622</v>
       </c>
       <c r="F73">
-        <f>(B73-E73)^2</f>
-        <v>4.6569639999999898E-2</v>
+        <f t="shared" si="7"/>
+        <v>5.9128481375828809E-2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -4966,20 +4969,20 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C74">
-        <f t="shared" si="2"/>
-        <v>-0.4</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D74">
-        <f t="shared" si="3"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E74">
-        <f>C74+(A74*D74)</f>
-        <v>1.8842000000000003</v>
+        <f t="shared" si="6"/>
+        <v>1.8568365130702622</v>
       </c>
       <c r="F74">
-        <f>(B74-E74)^2</f>
-        <v>0.17288963999999959</v>
+        <f t="shared" si="7"/>
+        <v>0.19639387614772372</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -4990,20 +4993,20 @@
         <v>2.1</v>
       </c>
       <c r="C75">
-        <f t="shared" si="2"/>
-        <v>-0.4</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D75">
-        <f t="shared" si="3"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E75">
-        <f>C75+(A75*D75)</f>
-        <v>1.9264999999999999</v>
+        <f t="shared" si="6"/>
+        <v>1.8912223744234151</v>
       </c>
       <c r="F75">
-        <f>(B75-E75)^2</f>
-        <v>3.0102250000000073E-2</v>
+        <f t="shared" si="7"/>
+        <v>4.3588096941396703E-2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -5014,20 +5017,20 @@
         <v>1.8</v>
       </c>
       <c r="C76">
-        <f t="shared" si="2"/>
-        <v>-0.4</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D76">
-        <f t="shared" si="3"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E76">
-        <f>C76+(A76*D76)</f>
-        <v>1.9264999999999999</v>
+        <f t="shared" si="6"/>
+        <v>1.8912223744234151</v>
       </c>
       <c r="F76">
-        <f>(B76-E76)^2</f>
-        <v>1.6002249999999957E-2</v>
+        <f t="shared" si="7"/>
+        <v>8.3215215954457328E-3</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -5038,20 +5041,20 @@
         <v>1.8</v>
       </c>
       <c r="C77">
-        <f t="shared" si="2"/>
-        <v>-0.4</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D77">
-        <f t="shared" si="3"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E77">
-        <f>C77+(A77*D77)</f>
-        <v>1.9264999999999999</v>
+        <f t="shared" si="6"/>
+        <v>1.8912223744234151</v>
       </c>
       <c r="F77">
-        <f>(B77-E77)^2</f>
-        <v>1.6002249999999957E-2</v>
+        <f t="shared" si="7"/>
+        <v>8.3215215954457328E-3</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -5062,20 +5065,20 @@
         <v>1.8</v>
       </c>
       <c r="C78">
-        <f t="shared" si="2"/>
-        <v>-0.4</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D78">
-        <f t="shared" si="3"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E78">
-        <f>C78+(A78*D78)</f>
-        <v>1.9687999999999999</v>
+        <f t="shared" si="6"/>
+        <v>1.925608235776568</v>
       </c>
       <c r="F78">
-        <f>(B78-E78)^2</f>
-        <v>2.8493439999999946E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.5777428894901895E-2</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -5086,20 +5089,20 @@
         <v>2.1</v>
       </c>
       <c r="C79">
-        <f t="shared" si="2"/>
-        <v>-0.4</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D79">
-        <f t="shared" si="3"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E79">
-        <f>C79+(A79*D79)</f>
-        <v>1.9687999999999999</v>
+        <f t="shared" si="6"/>
+        <v>1.925608235776568</v>
       </c>
       <c r="F79">
-        <f>(B79-E79)^2</f>
-        <v>1.7213440000000056E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.0412487428961115E-2</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -5110,20 +5113,20 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C80">
-        <f t="shared" si="2"/>
-        <v>-0.4</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D80">
-        <f t="shared" si="3"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E80">
-        <f>C80+(A80*D80)</f>
-        <v>1.9687999999999999</v>
+        <f t="shared" si="6"/>
+        <v>1.925608235776568</v>
       </c>
       <c r="F80">
-        <f>(B80-E80)^2</f>
-        <v>5.3453440000000137E-2</v>
+        <f t="shared" si="7"/>
+        <v>7.5290840273647575E-2</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -5134,20 +5137,20 @@
         <v>1.4</v>
       </c>
       <c r="C81">
-        <f t="shared" si="2"/>
-        <v>-0.4</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D81">
-        <f t="shared" si="3"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E81">
-        <f>C81+(A81*D81)</f>
-        <v>1.9687999999999999</v>
+        <f t="shared" si="6"/>
+        <v>1.925608235776568</v>
       </c>
       <c r="F81">
-        <f>(B81-E81)^2</f>
-        <v>0.32353343999999995</v>
+        <f t="shared" si="7"/>
+        <v>0.27626401751615642</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -5158,20 +5161,20 @@
         <v>2.4</v>
       </c>
       <c r="C82">
-        <f t="shared" si="2"/>
-        <v>-0.4</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D82">
-        <f t="shared" si="3"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E82">
-        <f>C82+(A82*D82)</f>
-        <v>1.9687999999999999</v>
+        <f t="shared" si="6"/>
+        <v>1.925608235776568</v>
       </c>
       <c r="F82">
-        <f>(B82-E82)^2</f>
-        <v>0.18593344000000003</v>
+        <f t="shared" si="7"/>
+        <v>0.22504754596302018</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -5182,20 +5185,20 @@
         <v>2.4</v>
       </c>
       <c r="C83">
-        <f t="shared" si="2"/>
-        <v>-0.4</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D83">
-        <f t="shared" si="3"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E83">
-        <f>C83+(A83*D83)</f>
-        <v>1.9687999999999999</v>
+        <f t="shared" si="6"/>
+        <v>1.925608235776568</v>
       </c>
       <c r="F83">
-        <f>(B83-E83)^2</f>
-        <v>0.18593344000000003</v>
+        <f t="shared" si="7"/>
+        <v>0.22504754596302018</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -5206,20 +5209,20 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C84">
-        <f t="shared" si="2"/>
-        <v>-0.4</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D84">
-        <f t="shared" si="3"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E84">
-        <f>C84+(A84*D84)</f>
-        <v>2.0110999999999999</v>
+        <f t="shared" si="6"/>
+        <v>1.9599940971297212</v>
       </c>
       <c r="F84">
-        <f>(B84-E84)^2</f>
-        <v>8.3463209999999968E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.11560401398663336</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -5230,20 +5233,20 @@
         <v>2.1</v>
       </c>
       <c r="C85">
-        <f t="shared" si="2"/>
-        <v>-0.4</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D85">
-        <f t="shared" si="3"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E85">
-        <f>C85+(A85*D85)</f>
-        <v>2.0110999999999999</v>
+        <f t="shared" si="6"/>
+        <v>1.9599940971297212</v>
       </c>
       <c r="F85">
-        <f>(B85-E85)^2</f>
-        <v>7.9032100000000355E-3</v>
+        <f t="shared" si="7"/>
+        <v>1.9601652838521975E-2</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -5254,20 +5257,20 @@
         <v>2.5</v>
       </c>
       <c r="C86">
-        <f t="shared" si="2"/>
-        <v>-0.4</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D86">
-        <f t="shared" si="3"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E86">
-        <f>C86+(A86*D86)</f>
-        <v>2.0110999999999999</v>
+        <f t="shared" si="6"/>
+        <v>1.9599940971297212</v>
       </c>
       <c r="F86">
-        <f>(B86-E86)^2</f>
-        <v>0.2390232100000001</v>
+        <f t="shared" si="7"/>
+        <v>0.29160637513474502</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -5278,20 +5281,20 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C87">
-        <f t="shared" si="2"/>
-        <v>-0.4</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D87">
-        <f t="shared" si="3"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E87">
-        <f>C87+(A87*D87)</f>
-        <v>2.0533999999999999</v>
+        <f t="shared" si="6"/>
+        <v>1.9943799584828741</v>
       </c>
       <c r="F87">
-        <f>(B87-E87)^2</f>
-        <v>2.1491560000000083E-2</v>
+        <f t="shared" si="7"/>
+        <v>4.2279601473504659E-2</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -5302,20 +5305,20 @@
         <v>1.8</v>
       </c>
       <c r="C88">
-        <f t="shared" si="2"/>
-        <v>-0.4</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D88">
-        <f t="shared" si="3"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E88">
-        <f>C88+(A88*D88)</f>
-        <v>2.0533999999999999</v>
+        <f t="shared" si="6"/>
+        <v>1.9943799584828741</v>
       </c>
       <c r="F88">
-        <f>(B88-E88)^2</f>
-        <v>6.4211559999999918E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.7783568259803835E-2</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -5326,20 +5329,20 @@
         <v>1.6</v>
       </c>
       <c r="C89">
-        <f t="shared" si="2"/>
-        <v>-0.4</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D89">
-        <f t="shared" si="3"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E89">
-        <f>C89+(A89*D89)</f>
-        <v>2.0533999999999999</v>
+        <f t="shared" si="6"/>
+        <v>1.9943799584828741</v>
       </c>
       <c r="F89">
-        <f>(B89-E89)^2</f>
-        <v>0.20557155999999982</v>
+        <f t="shared" si="7"/>
+        <v>0.15553555165295341</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -5350,20 +5353,20 @@
         <v>2.1</v>
       </c>
       <c r="C90">
-        <f t="shared" si="2"/>
-        <v>-0.4</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D90">
-        <f t="shared" si="3"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E90">
-        <f>C90+(A90*D90)</f>
-        <v>2.0957000000000003</v>
+        <f t="shared" si="6"/>
+        <v>2.0287658198360274</v>
       </c>
       <c r="F90">
-        <f>(B90-E90)^2</f>
-        <v>1.8489999999997836E-5</v>
+        <f t="shared" si="7"/>
+        <v>5.0743084236333147E-3</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -5374,20 +5377,20 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C91">
-        <f t="shared" si="2"/>
-        <v>-0.4</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D91">
-        <f t="shared" si="3"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E91">
-        <f>C91+(A91*D91)</f>
-        <v>2.0957000000000003</v>
+        <f t="shared" si="6"/>
+        <v>2.0287658198360274</v>
       </c>
       <c r="F91">
-        <f>(B91-E91)^2</f>
-        <v>4.1738489999999788E-2</v>
+        <f t="shared" si="7"/>
+        <v>7.3567980489222223E-2</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -5398,20 +5401,20 @@
         <v>2.5</v>
       </c>
       <c r="C92">
-        <f t="shared" si="2"/>
-        <v>-0.4</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D92">
-        <f t="shared" si="3"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E92">
-        <f>C92+(A92*D92)</f>
-        <v>2.1379999999999999</v>
+        <f t="shared" si="6"/>
+        <v>2.0631516811891801</v>
       </c>
       <c r="F92">
-        <f>(B92-E92)^2</f>
-        <v>0.13104400000000008</v>
+        <f t="shared" si="7"/>
+        <v>0.19083645364783972</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -5422,20 +5425,20 @@
         <v>1.8</v>
       </c>
       <c r="C93">
-        <f t="shared" si="2"/>
-        <v>-0.4</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D93">
-        <f t="shared" si="3"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E93">
-        <f>C93+(A93*D93)</f>
-        <v>2.1379999999999999</v>
+        <f t="shared" si="6"/>
+        <v>2.0631516811891801</v>
       </c>
       <c r="F93">
-        <f>(B93-E93)^2</f>
-        <v>0.1142439999999999</v>
+        <f t="shared" si="7"/>
+        <v>6.9248807312691882E-2</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -5446,20 +5449,20 @@
         <v>2.5</v>
       </c>
       <c r="C94">
-        <f t="shared" si="2"/>
-        <v>-0.4</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D94">
-        <f t="shared" si="3"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E94">
-        <f>C94+(A94*D94)</f>
-        <v>2.1802999999999999</v>
+        <f t="shared" si="6"/>
+        <v>2.0975375425423328</v>
       </c>
       <c r="F94">
-        <f>(B94-E94)^2</f>
-        <v>0.10220809000000006</v>
+        <f t="shared" si="7"/>
+        <v>0.16197602966286456</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -5470,20 +5473,20 @@
         <v>1.9</v>
       </c>
       <c r="C95">
-        <f t="shared" si="2"/>
-        <v>-0.4</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D95">
-        <f t="shared" si="3"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E95">
-        <f>C95+(A95*D95)</f>
-        <v>2.1802999999999999</v>
+        <f t="shared" si="6"/>
+        <v>2.0975375425423328</v>
       </c>
       <c r="F95">
-        <f>(B95-E95)^2</f>
-        <v>7.8568089999999993E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.9021080713663982E-2</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -5494,20 +5497,20 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C96">
-        <f t="shared" si="2"/>
-        <v>-0.4</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D96">
-        <f t="shared" si="3"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E96">
-        <f>C96+(A96*D96)</f>
-        <v>2.1802999999999999</v>
+        <f t="shared" si="6"/>
+        <v>2.0975375425423328</v>
       </c>
       <c r="F96">
-        <f>(B96-E96)^2</f>
-        <v>1.4328089999999981E-2</v>
+        <f t="shared" si="7"/>
+        <v>4.0991046679797617E-2</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -5518,20 +5521,20 @@
         <v>1.8</v>
       </c>
       <c r="C97">
-        <f t="shared" si="2"/>
-        <v>-0.4</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D97">
-        <f t="shared" si="3"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E97">
-        <f>C97+(A97*D97)</f>
-        <v>2.2648999999999999</v>
+        <f t="shared" si="6"/>
+        <v>2.1663092652486391</v>
       </c>
       <c r="F97">
-        <f>(B97-E97)^2</f>
-        <v>0.21613200999999987</v>
+        <f t="shared" si="7"/>
+        <v>0.1341824778069978</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -5542,20 +5545,20 @@
         <v>2</v>
       </c>
       <c r="C98">
-        <f t="shared" si="2"/>
-        <v>-0.4</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D98">
-        <f t="shared" si="3"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E98">
-        <f>C98+(A98*D98)</f>
-        <v>2.3072000000000004</v>
+        <f t="shared" si="6"/>
+        <v>2.2006951266017922</v>
       </c>
       <c r="F98">
-        <f>(B98-E98)^2</f>
-        <v>9.4371840000000221E-2</v>
+        <f t="shared" si="7"/>
+        <v>4.0278533841709409E-2</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -5566,20 +5569,20 @@
         <v>2.1</v>
       </c>
       <c r="C99">
-        <f t="shared" si="2"/>
-        <v>-0.4</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D99">
-        <f t="shared" si="3"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E99">
-        <f>C99+(A99*D99)</f>
-        <v>2.3917999999999999</v>
+        <f t="shared" ref="E99:E130" si="10">C99+(A99*D99)</f>
+        <v>2.2694668493080981</v>
       </c>
       <c r="F99">
-        <f>(B99-E99)^2</f>
-        <v>8.5147239999999902E-2</v>
+        <f t="shared" ref="F99:F130" si="11">(B99-E99)^2</f>
+        <v>2.8719013014413583E-2</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -5590,20 +5593,20 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C100">
-        <f t="shared" si="2"/>
-        <v>-0.4</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D100">
-        <f t="shared" si="3"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E100">
-        <f>C100+(A100*D100)</f>
-        <v>2.4340999999999999</v>
+        <f t="shared" si="10"/>
+        <v>2.3038527106612512</v>
       </c>
       <c r="F100">
-        <f>(B100-E100)^2</f>
-        <v>5.4802809999999882E-2</v>
+        <f t="shared" si="11"/>
+        <v>1.078538551168952E-2</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -5614,20 +5617,20 @@
         <v>2</v>
       </c>
       <c r="C101">
-        <f t="shared" si="2"/>
-        <v>-0.4</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D101">
-        <f t="shared" si="3"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E101">
-        <f>C101+(A101*D101)</f>
-        <v>2.4340999999999999</v>
+        <f t="shared" si="10"/>
+        <v>2.3038527106612512</v>
       </c>
       <c r="F101">
-        <f>(B101-E101)^2</f>
-        <v>0.18844280999999993</v>
+        <f t="shared" si="11"/>
+        <v>9.2326469776190037E-2</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -5638,20 +5641,20 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C102">
-        <f t="shared" si="2"/>
-        <v>-0.4</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D102">
-        <f t="shared" si="3"/>
-        <v>0.42299999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.34385861353153002</v>
       </c>
       <c r="E102">
-        <f>C102+(A102*D102)</f>
-        <v>2.5186999999999999</v>
+        <f t="shared" si="10"/>
+        <v>2.3726244333675575</v>
       </c>
       <c r="F102">
-        <f>(B102-E102)^2</f>
-        <v>4.782969000000005E-2</v>
+        <f t="shared" si="11"/>
+        <v>5.2743083219588191E-3</v>
       </c>
     </row>
   </sheetData>
